--- a/public/import-barang-template.xlsx
+++ b/public/import-barang-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Univ\Self\Belajar Laravel\Laravel 6\Project\inventaris\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inven-bs-main\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E38D0E-5BE3-41CA-92A4-E9A26158767C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5577C91-A274-4F03-81C6-2A809B8D1934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>No.</t>
   </si>
@@ -40,9 +43,6 @@
   </si>
   <si>
     <t>Merek</t>
-  </si>
-  <si>
-    <t>Bahan</t>
   </si>
   <si>
     <t>Asal Perolehan</t>
@@ -406,30 +406,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="25.42578125" customWidth="1"/>
     <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,9 +465,6 @@
       </c>
       <c r="L1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
